--- a/ModelingV0/output/data/teste.xlsx
+++ b/ModelingV0/output/data/teste.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000001_F9']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['UE6']</t>
+          <t>['UE17']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['F3', 'SBS2', 'UE6']</t>
+          <t>['F9', 'SBS2', 'UE17']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,22 +521,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000001_F9']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['UE6']</t>
+          <t>['UE17']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['F3', 'SBS2', 'UE6']</t>
+          <t>['F9', 'SBS2', 'UE17']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -554,27 +554,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F6']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F6']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['UE9']</t>
+          <t>['UE31']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE9']</t>
+          <t>['F6', 'SBS2', 'UE31']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -583,31 +583,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000001_F9']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['UE6']</t>
+          <t>['UE17']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['F3', 'SBS4', 'UE6']</t>
+          <t>['F9', 'SBS2', 'UE17']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -616,31 +616,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F6']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F6']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['UE9']</t>
+          <t>['UE31']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE9']</t>
+          <t>['F6', 'SBS3', 'UE31']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -649,31 +649,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['00000003_F3']</t>
+          <t>['00000003_F2']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['UE3']</t>
+          <t>['UE49']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['F3', 'SBS4', 'UE3']</t>
+          <t>['F2', 'SBS2', 'UE49']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -682,31 +682,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000001_F9']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['UE6']</t>
+          <t>['UE17']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['F3', 'SBS4', 'UE6']</t>
+          <t>['F9', 'SBS2', 'UE17']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -715,31 +715,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F6']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F6']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['UE9']</t>
+          <t>['UE31']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE9']</t>
+          <t>['F6', 'SBS2', 'UE31']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -748,31 +748,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['00000003_F3']</t>
+          <t>['00000003_F2']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['UE3']</t>
+          <t>['UE49']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['F3', 'SBS4', 'UE3']</t>
+          <t>['F2', 'MBS0', 'UE49']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -781,31 +781,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['00000006_F1']</t>
+          <t>['00000004_F2']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['UE7']</t>
+          <t>['UE42']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE7']</t>
+          <t>['F2', 'MBS0', 'UE42']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -814,31 +814,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000001_F9']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['UE6']</t>
+          <t>['UE17']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['F3', 'SBS4', 'UE6']</t>
+          <t>['F9', 'SBS2', 'UE17']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -847,31 +847,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F6']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F6']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['UE9']</t>
+          <t>['UE31']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE9']</t>
+          <t>['F6', 'SBS2', 'UE31']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -880,31 +880,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['00000003_F3']</t>
+          <t>['00000003_F2']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['UE3']</t>
+          <t>['UE49']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['F3', 'SBS4', 'UE3']</t>
+          <t>['F2', 'MBS0', 'UE49']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -913,31 +913,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['00000006_F1']</t>
+          <t>['00000004_F2']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['UE7']</t>
+          <t>['UE42']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE7']</t>
+          <t>['F2', 'MBS0', 'UE42']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -946,31 +946,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['00000007_F1']</t>
+          <t>['00000005_F2']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['UE3']</t>
+          <t>['UE2']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE3']</t>
+          <t>['F2', 'MBS0', 'UE2']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -979,31 +979,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000001_F9']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['UE6']</t>
+          <t>['UE17']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['F3', 'SBS4', 'UE6']</t>
+          <t>['F9', 'SBS2', 'UE17']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -1012,31 +1012,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F6']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F6']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['UE9']</t>
+          <t>['UE31']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE9']</t>
+          <t>['F6', 'MBS0', 'UE31']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -1045,31 +1045,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['00000003_F3']</t>
+          <t>['00000003_F2']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['F3']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['UE3']</t>
+          <t>['UE49']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['F3', 'SBS4', 'UE3']</t>
+          <t>['F2', 'MBS0', 'UE49']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -1078,31 +1078,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['00000006_F1']</t>
+          <t>['00000004_F2']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['UE7']</t>
+          <t>['UE42']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE7']</t>
+          <t>['F2', 'MBS0', 'UE42']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -1111,31 +1111,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['00000007_F1']</t>
+          <t>['00000005_F2']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F2']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['UE3']</t>
+          <t>['UE2']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['F1', 'SBS4', 'UE3']</t>
+          <t>['F2', 'MBS0', 'UE2']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -1144,262 +1144,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['00000008_F2']</t>
+          <t>['00000006_F6']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F6']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['UE3']</t>
+          <t>['UE24']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['F2', 'SBS4', 'UE3']</t>
+          <t>['F6', 'MBS0', 'UE24']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SBS4</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>['00000001_F3']</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>['F3']</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>['UE6']</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>['F3', 'SBS2', 'UE6']</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>SBS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>['00000002_F1']</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>['F1']</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['UE9']</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>['F1', 'SBS4', 'UE9']</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>SBS4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>['00000003_F3']</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>['F3']</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['UE3']</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>['F3', 'SBS2', 'UE3']</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>SBS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>['00000006_F1']</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>['F1']</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>['UE7']</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>['F1', 'SBS4', 'UE7']</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>SBS4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>['00000007_F1']</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>['F1']</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['UE3']</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>['F1', 'SBS4', 'UE3']</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>SBS4</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>['00000008_F2']</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>['F2']</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['UE3']</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>['F2', 'SBS4', 'UE3']</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>SBS4</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>['00000010_F1']</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>['F1']</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>['UE6']</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>['F1', 'SBS4', 'UE6']</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>SBS4</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1451,33 +1220,6 @@
         <v>2</v>
       </c>
       <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1490,7 +1232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1517,7 +1259,11 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00000002_F6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1528,7 +1274,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00000001_F3</t>
+          <t>00000002_F6</t>
         </is>
       </c>
     </row>
@@ -1537,42 +1283,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00000003_F2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>00000001_F3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>00000003_F3</t>
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00000002_F6</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1615,31 +1343,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1674,7 +1378,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F9</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1388,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F6</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1398,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F2</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1408,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F2</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1418,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F2</t>
         </is>
       </c>
     </row>
@@ -1724,47 +1428,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>F1</t>
+          <t>F6</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1856,14 +1520,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS1')</t>
+          <t>('MBS0', 'UE1')</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E4" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="5">
@@ -1875,14 +1539,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS2')</t>
+          <t>('MBS0', 'UE2')</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E5" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="6">
@@ -1894,14 +1558,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS3')</t>
+          <t>('MBS0', 'UE3')</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E6" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7">
@@ -1913,14 +1577,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS4')</t>
+          <t>('MBS0', 'UE4')</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E7" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8">
@@ -1932,14 +1596,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('MBS1', 'MBS2')</t>
+          <t>('MBS0', 'UE5')</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E8" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="9">
@@ -1951,14 +1615,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS1')</t>
+          <t>('MBS0', 'UE6')</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E9" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="10">
@@ -1970,14 +1634,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS2')</t>
+          <t>('MBS0', 'UE7')</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E10" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11">
@@ -1989,14 +1653,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('MBS2', 'MBS1')</t>
+          <t>('MBS0', 'UE8')</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E11" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,14 +1672,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS3')</t>
+          <t>('MBS0', 'UE9')</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E12" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="13">
@@ -2027,14 +1691,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS4')</t>
+          <t>('MBS0', 'UE10')</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E13" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="14">
@@ -2046,14 +1710,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS0')</t>
+          <t>('MBS0', 'UE11')</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E14" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="15">
@@ -2065,14 +1729,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS1')</t>
+          <t>('MBS0', 'UE12')</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E15" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="16">
@@ -2084,14 +1748,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE1')</t>
+          <t>('MBS0', 'UE13')</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0015</v>
+        <v>0.004</v>
       </c>
       <c r="E16" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="17">
@@ -2103,14 +1767,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE3')</t>
+          <t>('MBS0', 'UE14')</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0019</v>
+        <v>0.004</v>
       </c>
       <c r="E17" t="n">
-        <v>25263</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="18">
@@ -2122,14 +1786,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS0')</t>
+          <t>('MBS0', 'UE15')</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E18" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="19">
@@ -2141,14 +1805,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS1')</t>
+          <t>('MBS0', 'UE16')</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E19" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="20">
@@ -2160,14 +1824,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE1')</t>
+          <t>('MBS0', 'UE17')</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0011</v>
+        <v>0.004</v>
       </c>
       <c r="E20" t="n">
-        <v>43636</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="21">
@@ -2179,14 +1843,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE2')</t>
+          <t>('MBS0', 'UE18')</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0014</v>
+        <v>0.004</v>
       </c>
       <c r="E21" t="n">
-        <v>34286</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="22">
@@ -2198,14 +1862,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE6')</t>
+          <t>('MBS0', 'UE19')</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0015</v>
+        <v>0.004</v>
       </c>
       <c r="E22" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="23">
@@ -2217,14 +1881,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE10')</t>
+          <t>('MBS0', 'UE20')</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.0011</v>
+        <v>0.004</v>
       </c>
       <c r="E23" t="n">
-        <v>43636</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="24">
@@ -2236,14 +1900,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS0')</t>
+          <t>('MBS0', 'UE21')</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E24" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="25">
@@ -2255,14 +1919,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS2')</t>
+          <t>('MBS0', 'UE22')</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E25" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="26">
@@ -2274,14 +1938,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE4')</t>
+          <t>('MBS0', 'UE23')</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0014</v>
+        <v>0.004</v>
       </c>
       <c r="E26" t="n">
-        <v>34286</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="27">
@@ -2293,14 +1957,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE5')</t>
+          <t>('MBS0', 'UE24')</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.0014</v>
+        <v>0.004</v>
       </c>
       <c r="E27" t="n">
-        <v>34286</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="28">
@@ -2312,14 +1976,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE7')</t>
+          <t>('MBS0', 'UE25')</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0017</v>
+        <v>0.004</v>
       </c>
       <c r="E28" t="n">
-        <v>28235</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="29">
@@ -2331,14 +1995,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE10')</t>
+          <t>('MBS0', 'UE26')</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.0017</v>
+        <v>0.004</v>
       </c>
       <c r="E29" t="n">
-        <v>28235</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="30">
@@ -2350,14 +2014,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS0')</t>
+          <t>('MBS0', 'UE27')</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E30" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="31">
@@ -2369,14 +2033,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS2')</t>
+          <t>('MBS0', 'UE28')</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E31" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="32">
@@ -2388,14 +2052,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE2')</t>
+          <t>('MBS0', 'UE29')</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0015</v>
+        <v>0.004</v>
       </c>
       <c r="E32" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="33">
@@ -2407,14 +2071,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE3')</t>
+          <t>('MBS0', 'UE30')</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.0013</v>
+        <v>0.004</v>
       </c>
       <c r="E33" t="n">
-        <v>36923</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="34">
@@ -2426,14 +2090,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE7')</t>
+          <t>('MBS0', 'UE31')</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.0013</v>
+        <v>0.004</v>
       </c>
       <c r="E34" t="n">
-        <v>36923</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="35">
@@ -2445,14 +2109,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE8')</t>
+          <t>('MBS0', 'UE32')</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E35" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="36">
@@ -2464,14 +2128,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE9')</t>
+          <t>('MBS0', 'UE33')</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0012</v>
+        <v>0.004</v>
       </c>
       <c r="E36" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="37">
@@ -2479,18 +2143,18 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>('MBS0', 'MBS1')</t>
+          <t>('MBS0', 'UE34')</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E37" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="38">
@@ -2498,18 +2162,18 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>('MBS0', 'MBS2')</t>
+          <t>('MBS0', 'UE35')</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E38" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="39">
@@ -2517,18 +2181,18 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS1')</t>
+          <t>('MBS0', 'UE36')</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E39" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="40">
@@ -2536,18 +2200,18 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS2')</t>
+          <t>('MBS0', 'UE37')</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E40" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="41">
@@ -2555,18 +2219,18 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS3')</t>
+          <t>('MBS0', 'UE38')</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E41" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="42">
@@ -2574,18 +2238,18 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS4')</t>
+          <t>('MBS0', 'UE39')</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E42" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="43">
@@ -2593,18 +2257,18 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>('MBS1', 'MBS2')</t>
+          <t>('MBS0', 'UE40')</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E43" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="44">
@@ -2612,18 +2276,18 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS1')</t>
+          <t>('MBS0', 'UE41')</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E44" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="45">
@@ -2631,18 +2295,18 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS2')</t>
+          <t>('MBS0', 'UE42')</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E45" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="46">
@@ -2650,18 +2314,18 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>('MBS2', 'MBS1')</t>
+          <t>('MBS0', 'UE43')</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E46" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="47">
@@ -2669,18 +2333,18 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS3')</t>
+          <t>('MBS0', 'UE44')</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E47" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="48">
@@ -2688,18 +2352,18 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS4')</t>
+          <t>('MBS0', 'UE45')</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E48" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="49">
@@ -2707,18 +2371,18 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS0')</t>
+          <t>('MBS0', 'UE46')</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E49" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="50">
@@ -2726,18 +2390,18 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS1')</t>
+          <t>('MBS0', 'UE47')</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E50" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="51">
@@ -2745,18 +2409,18 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE1')</t>
+          <t>('MBS0', 'UE48')</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.001343</v>
+        <v>0.004</v>
       </c>
       <c r="E51" t="n">
-        <v>35741</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="52">
@@ -2764,18 +2428,18 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS0')</t>
+          <t>('MBS0', 'UE49')</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E52" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="53">
@@ -2783,18 +2447,18 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS1')</t>
+          <t>('MBS0', 'UE50')</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E53" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="54">
@@ -2802,11 +2466,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE1')</t>
+          <t>('MBS1', 'MBS2')</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2821,18 +2485,18 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE2')</t>
+          <t>('MBS1', 'SBS1')</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.001543</v>
+        <v>0.001</v>
       </c>
       <c r="E55" t="n">
-        <v>31108</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="56">
@@ -2840,18 +2504,18 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE6')</t>
+          <t>('MBS1', 'SBS2')</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.001357</v>
+        <v>0.001</v>
       </c>
       <c r="E56" t="n">
-        <v>35372</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="57">
@@ -2859,18 +2523,18 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE10')</t>
+          <t>('MBS2', 'MBS1')</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="E57" t="n">
-        <v>40000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="58">
@@ -2878,18 +2542,18 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS0')</t>
+          <t>('MBS2', 'SBS3')</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E58" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="59">
@@ -2897,18 +2561,18 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS2')</t>
+          <t>('MBS2', 'SBS4')</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E59" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="60">
@@ -2916,18 +2580,18 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE4')</t>
+          <t>('SBS1', 'MBS1')</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.001557</v>
+        <v>0.001</v>
       </c>
       <c r="E60" t="n">
-        <v>30829</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="61">
@@ -2935,18 +2599,18 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE5')</t>
+          <t>('SBS1', 'UE1')</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.001571</v>
+        <v>0.0017</v>
       </c>
       <c r="E61" t="n">
-        <v>30554</v>
+        <v>28235</v>
       </c>
     </row>
     <row r="62">
@@ -2954,18 +2618,18 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE7')</t>
+          <t>('SBS1', 'UE5')</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.001871</v>
+        <v>0.0012</v>
       </c>
       <c r="E62" t="n">
-        <v>25655</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="63">
@@ -2973,18 +2637,18 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE10')</t>
+          <t>('SBS1', 'UE6')</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.001586</v>
+        <v>0.0013</v>
       </c>
       <c r="E63" t="n">
-        <v>30265</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="64">
@@ -2992,18 +2656,18 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS0')</t>
+          <t>('SBS1', 'UE7')</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="E64" t="n">
-        <v>24000</v>
+        <v>25263</v>
       </c>
     </row>
     <row r="65">
@@ -3011,18 +2675,18 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS2')</t>
+          <t>('SBS1', 'UE12')</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.002</v>
+        <v>0.0011</v>
       </c>
       <c r="E65" t="n">
-        <v>24000</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="66">
@@ -3030,18 +2694,18 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE2')</t>
+          <t>('SBS1', 'UE13')</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.001386</v>
+        <v>0.0013</v>
       </c>
       <c r="E66" t="n">
-        <v>34632</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="67">
@@ -3049,18 +2713,18 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE3')</t>
+          <t>('SBS1', 'UE18')</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.001157</v>
+        <v>0.0018</v>
       </c>
       <c r="E67" t="n">
-        <v>41487</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="68">
@@ -3068,18 +2732,18 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE6')</t>
+          <t>('SBS1', 'UE22')</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.001957</v>
+        <v>0.0015</v>
       </c>
       <c r="E68" t="n">
-        <v>24527</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="69">
@@ -3087,18 +2751,18 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE7')</t>
+          <t>('SBS1', 'UE26')</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="E69" t="n">
-        <v>40000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="70">
@@ -3106,18 +2770,18 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE8')</t>
+          <t>('SBS1', 'UE28')</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.001171</v>
+        <v>0.0018</v>
       </c>
       <c r="E70" t="n">
-        <v>40991</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="71">
@@ -3125,18 +2789,18 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE9')</t>
+          <t>('SBS1', 'UE34')</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.001386</v>
+        <v>0.0017</v>
       </c>
       <c r="E71" t="n">
-        <v>34632</v>
+        <v>28235</v>
       </c>
     </row>
     <row r="72">
@@ -3144,18 +2808,18 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>('MBS0', 'MBS1')</t>
+          <t>('SBS1', 'UE36')</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
       <c r="E72" t="n">
-        <v>24000</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="73">
@@ -3163,18 +2827,18 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>('MBS0', 'MBS2')</t>
+          <t>('SBS1', 'UE38')</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.002</v>
+        <v>0.0011</v>
       </c>
       <c r="E73" t="n">
-        <v>24000</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="74">
@@ -3182,18 +2846,18 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS1')</t>
+          <t>('SBS1', 'UE40')</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="E74" t="n">
-        <v>24000</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="75">
@@ -3201,18 +2865,18 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS2')</t>
+          <t>('SBS1', 'UE42')</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
       <c r="E75" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="76">
@@ -3220,18 +2884,18 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS3')</t>
+          <t>('SBS1', 'UE45')</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
       <c r="E76" t="n">
-        <v>24000</v>
+        <v>28235</v>
       </c>
     </row>
     <row r="77">
@@ -3239,18 +2903,18 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS4')</t>
+          <t>('SBS1', 'UE48')</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="E77" t="n">
-        <v>24000</v>
+        <v>25263</v>
       </c>
     </row>
     <row r="78">
@@ -3258,18 +2922,18 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>('MBS1', 'MBS2')</t>
+          <t>('SBS2', 'MBS1')</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E78" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="79">
@@ -3277,18 +2941,18 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS1')</t>
+          <t>('SBS2', 'UE2')</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="E79" t="n">
-        <v>24000</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="80">
@@ -3296,18 +2960,18 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS2')</t>
+          <t>('SBS2', 'UE4')</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="E80" t="n">
-        <v>24000</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="81">
@@ -3315,18 +2979,18 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>('MBS2', 'MBS1')</t>
+          <t>('SBS2', 'UE10')</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
       <c r="E81" t="n">
-        <v>24000</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="82">
@@ -3334,11 +2998,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS3')</t>
+          <t>('SBS2', 'UE14')</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3353,18 +3017,18 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS4')</t>
+          <t>('SBS2', 'UE17')</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
       <c r="E83" t="n">
-        <v>24000</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="84">
@@ -3372,18 +3036,18 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS0')</t>
+          <t>('SBS2', 'UE20')</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="E84" t="n">
-        <v>24000</v>
+        <v>25263</v>
       </c>
     </row>
     <row r="85">
@@ -3391,18 +3055,18 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS1')</t>
+          <t>('SBS2', 'UE21')</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
       <c r="E85" t="n">
-        <v>24000</v>
+        <v>34286</v>
       </c>
     </row>
     <row r="86">
@@ -3410,18 +3074,18 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE1')</t>
+          <t>('SBS2', 'UE30')</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.001486</v>
+        <v>0.0018</v>
       </c>
       <c r="E86" t="n">
-        <v>32301</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="87">
@@ -3429,18 +3093,18 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE2')</t>
+          <t>('SBS2', 'UE31')</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.001886</v>
+        <v>0.001</v>
       </c>
       <c r="E87" t="n">
-        <v>25451</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="88">
@@ -3448,18 +3112,18 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE3')</t>
+          <t>('SBS2', 'UE41')</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.001914</v>
+        <v>0.0017</v>
       </c>
       <c r="E88" t="n">
-        <v>25078</v>
+        <v>28235</v>
       </c>
     </row>
     <row r="89">
@@ -3467,18 +3131,18 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS0')</t>
+          <t>('SBS2', 'UE48')</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="E89" t="n">
-        <v>24000</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="90">
@@ -3486,18 +3150,18 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS1')</t>
+          <t>('SBS2', 'UE49')</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="E90" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="91">
@@ -3505,18 +3169,18 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE1')</t>
+          <t>('SBS2', 'UE50')</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.001</v>
+        <v>0.0017</v>
       </c>
       <c r="E91" t="n">
-        <v>48000</v>
+        <v>28235</v>
       </c>
     </row>
     <row r="92">
@@ -3524,18 +3188,18 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE2')</t>
+          <t>('SBS3', 'MBS2')</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.0014</v>
+        <v>0.001</v>
       </c>
       <c r="E92" t="n">
-        <v>34286</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="93">
@@ -3543,18 +3207,18 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE3')</t>
+          <t>('SBS3', 'UE4')</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
       <c r="E93" t="n">
-        <v>24000</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="94">
@@ -3562,18 +3226,18 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE6')</t>
+          <t>('SBS3', 'UE5')</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.001214</v>
+        <v>0.0012</v>
       </c>
       <c r="E94" t="n">
-        <v>39539</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="95">
@@ -3581,18 +3245,18 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE10')</t>
+          <t>('SBS3', 'UE9')</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.001057</v>
+        <v>0.0011</v>
       </c>
       <c r="E95" t="n">
-        <v>45412</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="96">
@@ -3600,18 +3264,18 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS0')</t>
+          <t>('SBS3', 'UE12')</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
       <c r="E96" t="n">
-        <v>24000</v>
+        <v>34286</v>
       </c>
     </row>
     <row r="97">
@@ -3619,18 +3283,18 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS2')</t>
+          <t>('SBS3', 'UE16')</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
       <c r="E97" t="n">
-        <v>24000</v>
+        <v>34286</v>
       </c>
     </row>
     <row r="98">
@@ -3638,18 +3302,18 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE4')</t>
+          <t>('SBS3', 'UE18')</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.001414</v>
+        <v>0.0013</v>
       </c>
       <c r="E98" t="n">
-        <v>33946</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="99">
@@ -3657,18 +3321,18 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE5')</t>
+          <t>('SBS3', 'UE19')</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.001429</v>
+        <v>0.0018</v>
       </c>
       <c r="E99" t="n">
-        <v>33590</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="100">
@@ -3676,18 +3340,18 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE7')</t>
+          <t>('SBS3', 'UE31')</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.001729</v>
+        <v>0.0011</v>
       </c>
       <c r="E100" t="n">
-        <v>27762</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="101">
@@ -3695,18 +3359,18 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE10')</t>
+          <t>('SBS3', 'UE32')</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.001729</v>
+        <v>0.0015</v>
       </c>
       <c r="E101" t="n">
-        <v>27762</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="102">
@@ -3714,18 +3378,18 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS0')</t>
+          <t>('SBS3', 'UE33')</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
       <c r="E102" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="103">
@@ -3733,18 +3397,18 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS2')</t>
+          <t>('SBS3', 'UE38')</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
       <c r="E103" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="104">
@@ -3752,18 +3416,18 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE2')</t>
+          <t>('SBS3', 'UE39')</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.001243</v>
+        <v>0.0013</v>
       </c>
       <c r="E104" t="n">
-        <v>38616</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="105">
@@ -3771,18 +3435,18 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE3')</t>
+          <t>('SBS3', 'UE43')</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="E105" t="n">
-        <v>36923</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="106">
@@ -3790,18 +3454,18 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE6')</t>
+          <t>('SBS3', 'UE44')</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.001814</v>
+        <v>0.0014</v>
       </c>
       <c r="E106" t="n">
-        <v>26461</v>
+        <v>34286</v>
       </c>
     </row>
     <row r="107">
@@ -3809,18 +3473,18 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE7')</t>
+          <t>('SBS3', 'UE46')</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.001343</v>
+        <v>0.002</v>
       </c>
       <c r="E107" t="n">
-        <v>35741</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="108">
@@ -3828,18 +3492,18 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE8')</t>
+          <t>('SBS3', 'UE47')</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.001029</v>
+        <v>0.0015</v>
       </c>
       <c r="E108" t="n">
-        <v>46647</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="109">
@@ -3847,18 +3511,18 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE9')</t>
+          <t>('SBS4', 'MBS2')</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.001529</v>
+        <v>0.001</v>
       </c>
       <c r="E109" t="n">
-        <v>31393</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="110">
@@ -3866,18 +3530,18 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>('MBS0', 'MBS1')</t>
+          <t>('SBS4', 'UE1')</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
       <c r="E110" t="n">
-        <v>24000</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="111">
@@ -3885,18 +3549,18 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>('MBS0', 'MBS2')</t>
+          <t>('SBS4', 'UE2')</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
       <c r="E111" t="n">
-        <v>24000</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="112">
@@ -3904,18 +3568,18 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS1')</t>
+          <t>('SBS4', 'UE3')</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="E112" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="113">
@@ -3923,18 +3587,18 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS2')</t>
+          <t>('SBS4', 'UE6')</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="E113" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="114">
@@ -3942,18 +3606,18 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS3')</t>
+          <t>('SBS4', 'UE7')</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="E114" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="115">
@@ -3961,18 +3625,18 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS4')</t>
+          <t>('SBS4', 'UE8')</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="E115" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="116">
@@ -3980,18 +3644,18 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>('MBS1', 'MBS2')</t>
+          <t>('SBS4', 'UE11')</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="E116" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="117">
@@ -3999,18 +3663,18 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS1')</t>
+          <t>('SBS4', 'UE15')</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
       <c r="E117" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="118">
@@ -4018,18 +3682,18 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS2')</t>
+          <t>('SBS4', 'UE19')</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="E118" t="n">
-        <v>24000</v>
+        <v>25263</v>
       </c>
     </row>
     <row r="119">
@@ -4037,18 +3701,18 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>('MBS2', 'MBS1')</t>
+          <t>('SBS4', 'UE22')</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.002</v>
+        <v>0.0012</v>
       </c>
       <c r="E119" t="n">
-        <v>24000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="120">
@@ -4056,18 +3720,18 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS3')</t>
+          <t>('SBS4', 'UE23')</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.002</v>
+        <v>0.0011</v>
       </c>
       <c r="E120" t="n">
-        <v>24000</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="121">
@@ -4075,18 +3739,18 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS4')</t>
+          <t>('SBS4', 'UE24')</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="E121" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="122">
@@ -4094,18 +3758,18 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS0')</t>
+          <t>('SBS4', 'UE25')</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E122" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="123">
@@ -4113,18 +3777,18 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS1')</t>
+          <t>('SBS4', 'UE27')</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="E123" t="n">
-        <v>24000</v>
+        <v>25263</v>
       </c>
     </row>
     <row r="124">
@@ -4132,18 +3796,18 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE1')</t>
+          <t>('SBS4', 'UE29')</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.001629</v>
+        <v>0.0017</v>
       </c>
       <c r="E124" t="n">
-        <v>29466</v>
+        <v>28235</v>
       </c>
     </row>
     <row r="125">
@@ -4151,11 +3815,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS0')</t>
+          <t>('SBS4', 'UE30')</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -4170,18 +3834,18 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS1')</t>
+          <t>('SBS4', 'UE35')</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E126" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="127">
@@ -4189,18 +3853,18 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE1')</t>
+          <t>('SBS4', 'UE37')</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.001</v>
+        <v>0.0016</v>
       </c>
       <c r="E127" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="128">
@@ -4208,18 +3872,18 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE2')</t>
+          <t>('SBS4', 'UE44')</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.001257</v>
+        <v>0.0013</v>
       </c>
       <c r="E128" t="n">
-        <v>38186</v>
+        <v>36923</v>
       </c>
     </row>
     <row r="129">
@@ -4227,18 +3891,18 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE6')</t>
+          <t>('SBS4', 'UE47')</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.001071</v>
+        <v>0.0019</v>
       </c>
       <c r="E129" t="n">
-        <v>44818</v>
+        <v>25263</v>
       </c>
     </row>
     <row r="130">
@@ -4246,18 +3910,18 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE10')</t>
+          <t>('MBS0', 'MBS1')</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E130" t="n">
-        <v>48000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="131">
@@ -4265,11 +3929,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS0')</t>
+          <t>('MBS0', 'MBS2')</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4284,18 +3948,18 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS2')</t>
+          <t>('MBS0', 'UE1')</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E132" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="133">
@@ -4303,18 +3967,18 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE4')</t>
+          <t>('MBS0', 'UE2')</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.001557</v>
+        <v>0.004</v>
       </c>
       <c r="E133" t="n">
-        <v>30829</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="134">
@@ -4322,18 +3986,18 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE5')</t>
+          <t>('MBS0', 'UE3')</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.001286</v>
+        <v>0.004</v>
       </c>
       <c r="E134" t="n">
-        <v>37325</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="135">
@@ -4341,18 +4005,18 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE7')</t>
+          <t>('MBS0', 'UE4')</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.001871</v>
+        <v>0.004</v>
       </c>
       <c r="E135" t="n">
-        <v>25655</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="136">
@@ -4360,18 +4024,18 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE10')</t>
+          <t>('MBS0', 'UE5')</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.001586</v>
+        <v>0.004</v>
       </c>
       <c r="E136" t="n">
-        <v>30265</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="137">
@@ -4379,18 +4043,18 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS0')</t>
+          <t>('MBS0', 'UE6')</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E137" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="138">
@@ -4398,18 +4062,18 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS2')</t>
+          <t>('MBS0', 'UE7')</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E138" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="139">
@@ -4417,18 +4081,18 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE2')</t>
+          <t>('MBS0', 'UE8')</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.001386</v>
+        <v>0.004</v>
       </c>
       <c r="E139" t="n">
-        <v>34632</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="140">
@@ -4436,18 +4100,18 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE3')</t>
+          <t>('MBS0', 'UE9')</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.001443</v>
+        <v>0.004</v>
       </c>
       <c r="E140" t="n">
-        <v>33264</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="141">
@@ -4455,18 +4119,18 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE6')</t>
+          <t>('MBS0', 'UE10')</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.001957</v>
+        <v>0.004</v>
       </c>
       <c r="E141" t="n">
-        <v>24527</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="142">
@@ -4474,18 +4138,18 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE7')</t>
+          <t>('MBS0', 'UE11')</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.0012</v>
+        <v>0.004</v>
       </c>
       <c r="E142" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="143">
@@ -4493,18 +4157,18 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE8')</t>
+          <t>('MBS0', 'UE12')</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.001171</v>
+        <v>0.004</v>
       </c>
       <c r="E143" t="n">
-        <v>40991</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="144">
@@ -4512,18 +4176,18 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE9')</t>
+          <t>('MBS0', 'UE13')</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.001386</v>
+        <v>0.004</v>
       </c>
       <c r="E144" t="n">
-        <v>34632</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="145">
@@ -4531,18 +4195,18 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>('MBS0', 'MBS1')</t>
+          <t>('MBS0', 'UE14')</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E145" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="146">
@@ -4550,18 +4214,18 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>('MBS0', 'MBS2')</t>
+          <t>('MBS0', 'UE15')</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E146" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="147">
@@ -4569,18 +4233,18 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS1')</t>
+          <t>('MBS0', 'UE16')</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E147" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="148">
@@ -4588,18 +4252,18 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS2')</t>
+          <t>('MBS0', 'UE17')</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E148" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="149">
@@ -4607,18 +4271,18 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS3')</t>
+          <t>('MBS0', 'UE18')</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E149" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="150">
@@ -4626,18 +4290,18 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>('MBS0', 'SBS4')</t>
+          <t>('MBS0', 'UE19')</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E150" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="151">
@@ -4645,18 +4309,18 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>('MBS1', 'MBS2')</t>
+          <t>('MBS0', 'UE20')</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E151" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="152">
@@ -4664,18 +4328,18 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS1')</t>
+          <t>('MBS0', 'UE21')</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E152" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="153">
@@ -4683,18 +4347,18 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS2')</t>
+          <t>('MBS0', 'UE22')</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E153" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="154">
@@ -4702,18 +4366,18 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>('MBS2', 'MBS1')</t>
+          <t>('MBS0', 'UE23')</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E154" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="155">
@@ -4721,18 +4385,18 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS3')</t>
+          <t>('MBS0', 'UE24')</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E155" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="156">
@@ -4740,18 +4404,18 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS4')</t>
+          <t>('MBS0', 'UE25')</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E156" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="157">
@@ -4759,18 +4423,18 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS0')</t>
+          <t>('MBS0', 'UE26')</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E157" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="158">
@@ -4778,18 +4442,18 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>('SBS1', 'MBS1')</t>
+          <t>('MBS0', 'UE27')</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E158" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="159">
@@ -4797,18 +4461,18 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE1')</t>
+          <t>('MBS0', 'UE28')</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.001486</v>
+        <v>0.004</v>
       </c>
       <c r="E159" t="n">
-        <v>32301</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="160">
@@ -4816,18 +4480,18 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE2')</t>
+          <t>('MBS0', 'UE29')</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.001886</v>
+        <v>0.004</v>
       </c>
       <c r="E160" t="n">
-        <v>25451</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="161">
@@ -4835,18 +4499,18 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS0')</t>
+          <t>('MBS0', 'UE30')</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E161" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="162">
@@ -4854,18 +4518,18 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS1')</t>
+          <t>('MBS0', 'UE31')</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E162" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="163">
@@ -4873,18 +4537,18 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE1')</t>
+          <t>('MBS0', 'UE32')</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E163" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="164">
@@ -4892,18 +4556,18 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE2')</t>
+          <t>('MBS0', 'UE33')</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.0014</v>
+        <v>0.004</v>
       </c>
       <c r="E164" t="n">
-        <v>34286</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="165">
@@ -4911,18 +4575,18 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE3')</t>
+          <t>('MBS0', 'UE34')</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E165" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="166">
@@ -4930,18 +4594,18 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE6')</t>
+          <t>('MBS0', 'UE35')</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E166" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="167">
@@ -4949,18 +4613,18 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE10')</t>
+          <t>('MBS0', 'UE36')</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.001057</v>
+        <v>0.004</v>
       </c>
       <c r="E167" t="n">
-        <v>45412</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="168">
@@ -4968,18 +4632,18 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS0')</t>
+          <t>('MBS0', 'UE37')</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E168" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="169">
@@ -4987,18 +4651,18 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS2')</t>
+          <t>('MBS0', 'UE38')</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E169" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="170">
@@ -5006,18 +4670,18 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE4')</t>
+          <t>('MBS0', 'UE39')</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.0017</v>
+        <v>0.004</v>
       </c>
       <c r="E170" t="n">
-        <v>28235</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="171">
@@ -5025,18 +4689,18 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE5')</t>
+          <t>('MBS0', 'UE40')</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.001429</v>
+        <v>0.004</v>
       </c>
       <c r="E171" t="n">
-        <v>33590</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="172">
@@ -5044,18 +4708,18 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE7')</t>
+          <t>('MBS0', 'UE41')</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.001729</v>
+        <v>0.004</v>
       </c>
       <c r="E172" t="n">
-        <v>27762</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="173">
@@ -5063,18 +4727,18 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE10')</t>
+          <t>('MBS0', 'UE42')</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.001443</v>
+        <v>0.004</v>
       </c>
       <c r="E173" t="n">
-        <v>33264</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="174">
@@ -5082,18 +4746,18 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS0')</t>
+          <t>('MBS0', 'UE43')</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E174" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="175">
@@ -5101,18 +4765,18 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>('SBS4', 'MBS2')</t>
+          <t>('MBS0', 'UE44')</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E175" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="176">
@@ -5120,18 +4784,18 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE2')</t>
+          <t>('MBS0', 'UE45')</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.001243</v>
+        <v>0.004</v>
       </c>
       <c r="E176" t="n">
-        <v>38616</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="177">
@@ -5139,18 +4803,18 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE3')</t>
+          <t>('MBS0', 'UE46')</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.001586</v>
+        <v>0.004</v>
       </c>
       <c r="E177" t="n">
-        <v>30265</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="178">
@@ -5158,18 +4822,18 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE5')</t>
+          <t>('MBS0', 'UE47')</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.001871</v>
+        <v>0.004</v>
       </c>
       <c r="E178" t="n">
-        <v>25655</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="179">
@@ -5177,18 +4841,18 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE6')</t>
+          <t>('MBS0', 'UE48')</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.001814</v>
+        <v>0.004</v>
       </c>
       <c r="E179" t="n">
-        <v>26461</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="180">
@@ -5196,18 +4860,18 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE7')</t>
+          <t>('MBS0', 'UE49')</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.001343</v>
+        <v>0.004</v>
       </c>
       <c r="E180" t="n">
-        <v>35741</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="181">
@@ -5215,18 +4879,18 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE8')</t>
+          <t>('MBS0', 'UE50')</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.001314</v>
+        <v>0.004</v>
       </c>
       <c r="E181" t="n">
-        <v>36530</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="182">
@@ -5234,18 +4898,1519 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE9')</t>
+          <t>('MBS1', 'MBS2')</t>
         </is>
       </c>
       <c r="D182" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E182" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>('MBS1', 'SBS1')</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E183" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>('MBS1', 'SBS2')</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E184" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>('MBS2', 'MBS1')</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E185" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>('MBS2', 'SBS3')</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E186" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>('MBS2', 'SBS4')</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E187" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>('SBS1', 'MBS1')</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E188" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0.001586</v>
+      </c>
+      <c r="E189" t="n">
+        <v>30265</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE5')</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0.001386</v>
+      </c>
+      <c r="E190" t="n">
+        <v>34632</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE6')</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0.001143</v>
+      </c>
+      <c r="E191" t="n">
+        <v>41995</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE12')</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E192" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE13')</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="E193" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE18')</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0.001671</v>
+      </c>
+      <c r="E194" t="n">
+        <v>28725</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE22')</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0.001614</v>
+      </c>
+      <c r="E195" t="n">
+        <v>29740</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE26')</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0.001171</v>
+      </c>
+      <c r="E196" t="n">
+        <v>40991</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE28')</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0.001943</v>
+      </c>
+      <c r="E197" t="n">
+        <v>24704</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE29')</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0.001871</v>
+      </c>
+      <c r="E198" t="n">
+        <v>25655</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE34')</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0.001514</v>
+      </c>
+      <c r="E199" t="n">
+        <v>31704</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE36')</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0.001686</v>
+      </c>
+      <c r="E200" t="n">
+        <v>28470</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE38')</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="E201" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE40')</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0.001171</v>
+      </c>
+      <c r="E202" t="n">
+        <v>40991</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE42')</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0.001457</v>
+      </c>
+      <c r="E203" t="n">
+        <v>32944</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE45')</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.001814</v>
+      </c>
+      <c r="E204" t="n">
+        <v>26461</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE47')</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.001929</v>
+      </c>
+      <c r="E205" t="n">
+        <v>24883</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE48')</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.001729</v>
+      </c>
+      <c r="E206" t="n">
+        <v>27762</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>('SBS2', 'MBS1')</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E207" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.001114</v>
+      </c>
+      <c r="E208" t="n">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.001457</v>
+      </c>
+      <c r="E209" t="n">
+        <v>32944</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE10')</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.001643</v>
+      </c>
+      <c r="E210" t="n">
+        <v>29215</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE14')</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.001843</v>
+      </c>
+      <c r="E211" t="n">
+        <v>26044</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE17')</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.001943</v>
+      </c>
+      <c r="E212" t="n">
+        <v>24704</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE19')</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.001986</v>
+      </c>
+      <c r="E213" t="n">
+        <v>24169</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE20')</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="E214" t="n">
+        <v>25263</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE21')</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
         <v>0.001529</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E215" t="n">
         <v>31393</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE22')</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.001986</v>
+      </c>
+      <c r="E216" t="n">
+        <v>24169</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE30')</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.001943</v>
+      </c>
+      <c r="E217" t="n">
+        <v>24704</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE31')</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E218" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE41')</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="E219" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE48')</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.001443</v>
+      </c>
+      <c r="E220" t="n">
+        <v>33264</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE49')</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.001314</v>
+      </c>
+      <c r="E221" t="n">
+        <v>36530</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>('SBS2', 'UE50')</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="E222" t="n">
+        <v>26667</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>('SBS3', 'MBS2')</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E223" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.001114</v>
+      </c>
+      <c r="E224" t="n">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE5')</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.001086</v>
+      </c>
+      <c r="E225" t="n">
+        <v>44199</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE9')</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E226" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE12')</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.001571</v>
+      </c>
+      <c r="E227" t="n">
+        <v>30554</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE16')</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.001286</v>
+      </c>
+      <c r="E228" t="n">
+        <v>37325</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE18')</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.001443</v>
+      </c>
+      <c r="E229" t="n">
+        <v>33264</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE19')</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.001914</v>
+      </c>
+      <c r="E230" t="n">
+        <v>25078</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE31')</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.001257</v>
+      </c>
+      <c r="E231" t="n">
+        <v>38186</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE32')</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.001657</v>
+      </c>
+      <c r="E232" t="n">
+        <v>28968</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE33')</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="E233" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE38')</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.001757</v>
+      </c>
+      <c r="E234" t="n">
+        <v>27319</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE39')</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.001457</v>
+      </c>
+      <c r="E235" t="n">
+        <v>32944</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE42')</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.001914</v>
+      </c>
+      <c r="E236" t="n">
+        <v>25078</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE43')</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E237" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE44')</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.001257</v>
+      </c>
+      <c r="E238" t="n">
+        <v>38186</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE46')</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E239" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE47')</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.001343</v>
+      </c>
+      <c r="E240" t="n">
+        <v>35741</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>('SBS4', 'MBS2')</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E241" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.001971</v>
+      </c>
+      <c r="E242" t="n">
+        <v>24353</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.001914</v>
+      </c>
+      <c r="E243" t="n">
+        <v>25078</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.001371</v>
+      </c>
+      <c r="E244" t="n">
+        <v>35011</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE6')</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.001314</v>
+      </c>
+      <c r="E245" t="n">
+        <v>36530</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE7')</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.001686</v>
+      </c>
+      <c r="E246" t="n">
+        <v>28470</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE8')</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.001314</v>
+      </c>
+      <c r="E247" t="n">
+        <v>36530</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE11')</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.001671</v>
+      </c>
+      <c r="E248" t="n">
+        <v>28725</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE15')</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.001471</v>
+      </c>
+      <c r="E249" t="n">
+        <v>32631</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE22')</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="E250" t="n">
+        <v>36923</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE23')</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.001229</v>
+      </c>
+      <c r="E251" t="n">
+        <v>39056</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE24')</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.001614</v>
+      </c>
+      <c r="E252" t="n">
+        <v>29740</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE25')</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.001171</v>
+      </c>
+      <c r="E253" t="n">
+        <v>40991</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE27')</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.001757</v>
+      </c>
+      <c r="E254" t="n">
+        <v>27319</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE29')</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="E255" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE32')</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.001886</v>
+      </c>
+      <c r="E256" t="n">
+        <v>25451</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE34')</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.001943</v>
+      </c>
+      <c r="E257" t="n">
+        <v>24704</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE35')</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.001186</v>
+      </c>
+      <c r="E258" t="n">
+        <v>40472</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE37')</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.001443</v>
+      </c>
+      <c r="E259" t="n">
+        <v>33264</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE43')</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="E260" t="n">
+        <v>25263</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE44')</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.001486</v>
+      </c>
+      <c r="E261" t="n">
+        <v>32301</v>
       </c>
     </row>
   </sheetData>
@@ -5259,7 +6424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5293,11 +6458,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000001_F9']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0015</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="3">
@@ -5309,11 +6474,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F6']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0012</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="4">
@@ -5321,15 +6486,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000003_F2']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.001957</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="5">
@@ -5341,11 +6506,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000001_F9']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.001386</v>
+        <v>0.001943</v>
       </c>
     </row>
     <row r="6">
@@ -5357,11 +6522,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['00000003_F3']</t>
+          <t>['00000002_F6']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.001157</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="7">
@@ -5369,15 +6534,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['00000001_F3']</t>
+          <t>['00000003_F2']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.001814</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8">
@@ -5385,15 +6550,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000004_F2']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.001529</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="9">
@@ -5401,15 +6566,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['00000003_F3']</t>
+          <t>['00000005_F2']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0013</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="10">
@@ -5417,223 +6582,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['00000006_F1']</t>
+          <t>['00000006_F6']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.001343</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['00000001_F3']</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.001957</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['00000002_F1']</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.001386</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['00000003_F3']</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.001443</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>['00000006_F1']</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0012</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['00000007_F1']</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.001443</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>['00000008_F2']</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.001443</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['00000001_F3']</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['00000002_F1']</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.001529</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>['00000003_F3']</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>['00000006_F1']</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.001343</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>['00000007_F1']</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.001586</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>['00000008_F2']</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.001586</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>['00000010_F1']</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.001814</v>
+        <v>0.004</v>
       </c>
     </row>
   </sheetData>
@@ -5677,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5697,7 +6654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="3">
@@ -5773,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4">
@@ -5795,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5">
@@ -5817,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="6">
@@ -5833,13 +6790,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F6" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7">
@@ -5855,13 +6812,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="8">
@@ -5877,13 +6834,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="9">
@@ -5899,13 +6856,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F9" t="n">
-        <v>12000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="10">
@@ -5927,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="11">
@@ -5949,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12">
@@ -5971,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="13">
@@ -5987,13 +6944,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F13" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="14">
@@ -6015,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="15">
@@ -6031,475 +6988,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>8000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MBS0</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>MBS1</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>MBS2</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SBS1</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SBS2</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SBS3</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SBS4</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="E22" t="n">
-        <v>8000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>MBS0</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>MBS1</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MBS2</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SBS1</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SBS2</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SBS3</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SBS4</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>MBS0</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>MBS1</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>MBS2</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SBS1</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>5</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SBS2</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SBS3</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SBS4</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8000</v>
-      </c>
-      <c r="F36" t="n">
-        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -6513,7 +7008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6567,13 +7062,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6584,88 +7079,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.1667</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.8333</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
         <v>6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6679,7 +7105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6782,13 +7208,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6807,111 +7233,6 @@
       </c>
       <c r="K3" t="n">
         <v>0.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -6925,7 +7246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6966,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -6983,60 +7304,9 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7051,7 +7321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7089,13 +7359,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="3">
@@ -7106,64 +7376,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
   </sheetData>
@@ -7213,7 +7432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7247,7 +7466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE6')</t>
+          <t>('SBS2', 'UE17')</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7263,7 +7482,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE9')</t>
+          <t>('SBS2', 'UE49')</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7275,11 +7494,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE6')</t>
+          <t>('SBS3', 'UE31')</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7295,7 +7514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE9')</t>
+          <t>('MBS0', 'UE2')</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7307,11 +7526,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE3')</t>
+          <t>('MBS0', 'UE24')</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7323,11 +7542,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE6')</t>
+          <t>('MBS0', 'UE31')</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7339,11 +7558,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE7')</t>
+          <t>('MBS0', 'UE42')</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7355,11 +7574,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE9')</t>
+          <t>('MBS0', 'UE49')</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7371,158 +7590,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE3')</t>
+          <t>('SBS2', 'UE17')</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>('SBS4', 'UE6')</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>('SBS4', 'UE7')</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>('SBS4', 'UE9')</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>('SBS2', 'UE3')</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>('SBS2', 'UE6')</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>('SBS4', 'UE3')</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>('SBS4', 'UE6')</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>('SBS4', 'UE7')</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>('SBS4', 'UE9')</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
         <v>48</v>
       </c>
     </row>

--- a/ModelingV0/output/data/teste.xlsx
+++ b/ModelingV0/output/data/teste.xlsx
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['00000001_F9']</t>
+          <t>['00000001_F3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['F9']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['UE17']</t>
+          <t>['UE48']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['F9', 'SBS2', 'UE17']</t>
+          <t>['F3', 'SBS2', 'UE48']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,22 +521,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['00000001_F9']</t>
+          <t>['00000001_F3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['F9']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['UE17']</t>
+          <t>['UE48']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['F9', 'SBS2', 'UE17']</t>
+          <t>['F3', 'SBS2', 'UE48']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -554,27 +554,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['00000002_F6']</t>
+          <t>['00000002_F9']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['F6']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['UE31']</t>
+          <t>['UE29']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['F6', 'SBS2', 'UE31']</t>
+          <t>['F9', 'SBS4', 'UE29']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SBS2</t>
+          <t>SBS4</t>
         </is>
       </c>
     </row>
@@ -587,22 +587,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['00000001_F9']</t>
+          <t>['00000001_F3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['F9']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['UE17']</t>
+          <t>['UE48']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['F9', 'SBS2', 'UE17']</t>
+          <t>['F3', 'SBS2', 'UE48']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -620,27 +620,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['00000002_F6']</t>
+          <t>['00000002_F9']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['F6']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['UE31']</t>
+          <t>['UE29']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['F6', 'SBS3', 'UE31']</t>
+          <t>['F9', 'SBS4', 'UE29']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SBS3</t>
+          <t>SBS4</t>
         </is>
       </c>
     </row>
@@ -653,27 +653,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['00000003_F2']</t>
+          <t>['00000003_F1']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F1']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['UE49']</t>
+          <t>['UE43']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['F2', 'SBS2', 'UE49']</t>
+          <t>['F1', 'SBS3', 'UE43']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SBS2</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['00000001_F9']</t>
+          <t>['00000001_F3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['F9']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['UE17']</t>
+          <t>['UE48']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['F9', 'SBS2', 'UE17']</t>
+          <t>['F3', 'SBS2', 'UE48']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -719,27 +719,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['00000002_F6']</t>
+          <t>['00000002_F9']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['F6']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['UE31']</t>
+          <t>['UE29']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['F6', 'SBS2', 'UE31']</t>
+          <t>['F9', 'SBS1', 'UE29']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SBS2</t>
+          <t>SBS1</t>
         </is>
       </c>
     </row>
@@ -752,27 +752,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['00000003_F2']</t>
+          <t>['00000003_F1']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F1']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['UE49']</t>
+          <t>['UE43']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['F2', 'MBS0', 'UE49']</t>
+          <t>['F1', 'SBS3', 'UE43']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MBS0</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -785,27 +785,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['00000004_F2']</t>
+          <t>['00000004_F1']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F1']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['UE42']</t>
+          <t>['UE32']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['F2', 'MBS0', 'UE42']</t>
+          <t>['F1', 'SBS3', 'UE32']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>MBS0</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -818,27 +818,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['00000001_F9']</t>
+          <t>['00000001_F3']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['F9']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['UE17']</t>
+          <t>['UE48']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['F9', 'SBS2', 'UE17']</t>
+          <t>['F3', 'MBS0', 'UE48']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SBS2</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -851,27 +851,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['00000002_F6']</t>
+          <t>['00000002_F9']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['F6']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['UE31']</t>
+          <t>['UE29']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['F6', 'SBS2', 'UE31']</t>
+          <t>['F9', 'SBS1', 'UE29']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SBS2</t>
+          <t>SBS1</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['00000003_F2']</t>
+          <t>['00000003_F1']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F1']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['UE49']</t>
+          <t>['UE43']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['F2', 'MBS0', 'UE49']</t>
+          <t>['F1', 'SBS3', 'UE43']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MBS0</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -917,27 +917,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['00000004_F2']</t>
+          <t>['00000004_F1']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F1']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['UE42']</t>
+          <t>['UE32']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['F2', 'MBS0', 'UE42']</t>
+          <t>['F1', 'SBS3', 'UE32']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MBS0</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -950,22 +950,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['00000005_F2']</t>
+          <t>['00000005_F3']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['UE2']</t>
+          <t>['UE25']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['F2', 'MBS0', 'UE2']</t>
+          <t>['F3', 'MBS0', 'UE25']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -983,27 +983,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['00000001_F9']</t>
+          <t>['00000001_F3']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['F9']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['UE17']</t>
+          <t>['UE48']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['F9', 'SBS2', 'UE17']</t>
+          <t>['F3', 'MBS0', 'UE48']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SBS2</t>
+          <t>MBS0</t>
         </is>
       </c>
     </row>
@@ -1016,27 +1016,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['00000002_F6']</t>
+          <t>['00000002_F9']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['F6']</t>
+          <t>['F9']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['UE31']</t>
+          <t>['UE29']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['F6', 'MBS0', 'UE31']</t>
+          <t>['F9', 'SBS1', 'UE29']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MBS0</t>
+          <t>SBS1</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['00000003_F2']</t>
+          <t>['00000003_F1']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F1']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['UE49']</t>
+          <t>['UE43']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['F2', 'MBS0', 'UE49']</t>
+          <t>['F1', 'SBS3', 'UE43']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MBS0</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -1082,27 +1082,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['00000004_F2']</t>
+          <t>['00000004_F1']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F1']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['UE42']</t>
+          <t>['UE32']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['F2', 'MBS0', 'UE42']</t>
+          <t>['F1', 'SBS3', 'UE32']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MBS0</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -1115,22 +1115,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['00000005_F2']</t>
+          <t>['00000005_F3']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['F2']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['UE2']</t>
+          <t>['UE25']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['F2', 'MBS0', 'UE2']</t>
+          <t>['F3', 'MBS0', 'UE25']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1148,27 +1148,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['00000006_F6']</t>
+          <t>['00000006_F5']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['F6']</t>
+          <t>['F5']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['UE24']</t>
+          <t>['UE2']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['F6', 'MBS0', 'UE24']</t>
+          <t>['F5', 'SBS2', 'UE2']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MBS0</t>
+          <t>SBS2</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,11 +1259,7 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>00000002_F6</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1274,7 +1270,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00000002_F6</t>
+          <t>00000002_F9</t>
         </is>
       </c>
     </row>
@@ -1287,20 +1283,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00000003_F2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>00000002_F6</t>
+          <t>00000001_F3</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1361,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F3</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1371,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F9</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1381,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F1</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1391,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F1</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1401,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F3</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1411,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F5</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3956,10 +3939,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E132" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="133">
@@ -3975,10 +3958,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E133" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="134">
@@ -3994,10 +3977,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E134" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="135">
@@ -4013,10 +3996,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E135" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="136">
@@ -4032,10 +4015,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E136" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="137">
@@ -4051,10 +4034,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E137" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="138">
@@ -4070,10 +4053,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E138" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="139">
@@ -4089,10 +4072,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E139" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="140">
@@ -4108,10 +4091,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E140" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="141">
@@ -4127,10 +4110,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E141" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="142">
@@ -4146,10 +4129,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E142" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="143">
@@ -4165,10 +4148,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E143" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="144">
@@ -4184,10 +4167,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E144" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="145">
@@ -4203,10 +4186,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E145" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="146">
@@ -4222,10 +4205,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E146" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="147">
@@ -4241,10 +4224,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E147" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="148">
@@ -4260,10 +4243,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E148" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="149">
@@ -4279,10 +4262,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E149" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="150">
@@ -4298,10 +4281,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E150" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="151">
@@ -4317,10 +4300,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E151" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="152">
@@ -4336,10 +4319,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E152" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="153">
@@ -4355,10 +4338,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E153" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="154">
@@ -4374,10 +4357,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E154" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="155">
@@ -4393,10 +4376,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E155" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="156">
@@ -4412,10 +4395,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E156" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="157">
@@ -4431,10 +4414,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E157" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="158">
@@ -4450,10 +4433,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E158" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="159">
@@ -4469,10 +4452,10 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E159" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="160">
@@ -4488,10 +4471,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E160" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="161">
@@ -4507,10 +4490,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E161" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="162">
@@ -4526,10 +4509,10 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E162" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="163">
@@ -4545,10 +4528,10 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E163" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="164">
@@ -4564,10 +4547,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E164" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="165">
@@ -4583,10 +4566,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E165" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="166">
@@ -4602,10 +4585,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E166" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="167">
@@ -4621,10 +4604,10 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E167" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="168">
@@ -4640,10 +4623,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E168" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="169">
@@ -4659,10 +4642,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E169" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="170">
@@ -4678,10 +4661,10 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E170" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="171">
@@ -4697,10 +4680,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E171" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="172">
@@ -4716,10 +4699,10 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E172" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="173">
@@ -4735,10 +4718,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E173" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="174">
@@ -4754,10 +4737,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E174" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="175">
@@ -4773,10 +4756,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E175" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="176">
@@ -4792,10 +4775,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E176" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="177">
@@ -4811,10 +4794,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E177" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="178">
@@ -4830,10 +4813,10 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E178" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="179">
@@ -4849,10 +4832,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E179" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="180">
@@ -4868,10 +4851,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E180" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="181">
@@ -4887,10 +4870,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E181" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="182">
@@ -5058,10 +5041,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.001386</v>
+        <v>0.0011</v>
       </c>
       <c r="E190" t="n">
-        <v>34632</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="191">
@@ -5077,10 +5060,10 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.001143</v>
+        <v>0.001429</v>
       </c>
       <c r="E191" t="n">
-        <v>41995</v>
+        <v>33590</v>
       </c>
     </row>
     <row r="192">
@@ -5096,10 +5079,10 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.001</v>
+        <v>0.001243</v>
       </c>
       <c r="E192" t="n">
-        <v>48000</v>
+        <v>38616</v>
       </c>
     </row>
     <row r="193">
@@ -5115,10 +5098,10 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.0012</v>
+        <v>0.001486</v>
       </c>
       <c r="E193" t="n">
-        <v>40000</v>
+        <v>32301</v>
       </c>
     </row>
     <row r="194">
@@ -5153,10 +5136,10 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.001614</v>
+        <v>0.001329</v>
       </c>
       <c r="E195" t="n">
-        <v>29740</v>
+        <v>36117</v>
       </c>
     </row>
     <row r="196">
@@ -5172,10 +5155,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.001171</v>
+        <v>0.001</v>
       </c>
       <c r="E196" t="n">
-        <v>40991</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="197">
@@ -5248,10 +5231,10 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.001686</v>
+        <v>0.001971</v>
       </c>
       <c r="E200" t="n">
-        <v>28470</v>
+        <v>24353</v>
       </c>
     </row>
     <row r="201">
@@ -5267,10 +5250,10 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="E201" t="n">
-        <v>40000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="202">
@@ -5286,10 +5269,10 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.001171</v>
+        <v>0.001457</v>
       </c>
       <c r="E202" t="n">
-        <v>40991</v>
+        <v>32944</v>
       </c>
     </row>
     <row r="203">
@@ -5305,10 +5288,10 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.001457</v>
+        <v>0.001743</v>
       </c>
       <c r="E203" t="n">
-        <v>32944</v>
+        <v>27539</v>
       </c>
     </row>
     <row r="204">
@@ -5339,14 +5322,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE47')</t>
+          <t>('SBS1', 'UE48')</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.001929</v>
+        <v>0.001729</v>
       </c>
       <c r="E205" t="n">
-        <v>24883</v>
+        <v>27762</v>
       </c>
     </row>
     <row r="206">
@@ -5358,14 +5341,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE48')</t>
+          <t>('SBS2', 'MBS1')</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0.001729</v>
+        <v>0.002</v>
       </c>
       <c r="E206" t="n">
-        <v>27762</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="207">
@@ -5377,14 +5360,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>('SBS2', 'MBS1')</t>
+          <t>('SBS2', 'UE2')</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
       <c r="E207" t="n">
-        <v>24000</v>
+        <v>34286</v>
       </c>
     </row>
     <row r="208">
@@ -5396,14 +5379,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE2')</t>
+          <t>('SBS2', 'UE4')</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.001114</v>
+        <v>0.001457</v>
       </c>
       <c r="E208" t="n">
-        <v>43088</v>
+        <v>32944</v>
       </c>
     </row>
     <row r="209">
@@ -5415,14 +5398,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE4')</t>
+          <t>('SBS2', 'UE10')</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.001457</v>
+        <v>0.001929</v>
       </c>
       <c r="E209" t="n">
-        <v>32944</v>
+        <v>24883</v>
       </c>
     </row>
     <row r="210">
@@ -5434,14 +5417,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE10')</t>
+          <t>('SBS2', 'UE14')</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.001643</v>
+        <v>0.001843</v>
       </c>
       <c r="E210" t="n">
-        <v>29215</v>
+        <v>26044</v>
       </c>
     </row>
     <row r="211">
@@ -5453,14 +5436,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE14')</t>
+          <t>('SBS2', 'UE17')</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.001843</v>
+        <v>0.001943</v>
       </c>
       <c r="E211" t="n">
-        <v>26044</v>
+        <v>24704</v>
       </c>
     </row>
     <row r="212">
@@ -5472,14 +5455,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE17')</t>
+          <t>('SBS2', 'UE19')</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.001943</v>
+        <v>0.001986</v>
       </c>
       <c r="E212" t="n">
-        <v>24704</v>
+        <v>24169</v>
       </c>
     </row>
     <row r="213">
@@ -5491,14 +5474,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE19')</t>
+          <t>('SBS2', 'UE20')</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0.001986</v>
+        <v>0.001786</v>
       </c>
       <c r="E213" t="n">
-        <v>24169</v>
+        <v>26876</v>
       </c>
     </row>
     <row r="214">
@@ -5510,14 +5493,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE20')</t>
+          <t>('SBS2', 'UE21')</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.0019</v>
+        <v>0.001529</v>
       </c>
       <c r="E214" t="n">
-        <v>25263</v>
+        <v>31393</v>
       </c>
     </row>
     <row r="215">
@@ -5529,14 +5512,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE21')</t>
+          <t>('SBS2', 'UE22')</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.001529</v>
+        <v>0.001986</v>
       </c>
       <c r="E215" t="n">
-        <v>31393</v>
+        <v>24169</v>
       </c>
     </row>
     <row r="216">
@@ -5548,14 +5531,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE22')</t>
+          <t>('SBS2', 'UE30')</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.001986</v>
+        <v>0.001943</v>
       </c>
       <c r="E216" t="n">
-        <v>24169</v>
+        <v>24704</v>
       </c>
     </row>
     <row r="217">
@@ -5567,14 +5550,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE30')</t>
+          <t>('SBS2', 'UE31')</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0.001943</v>
+        <v>0.001</v>
       </c>
       <c r="E217" t="n">
-        <v>24704</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="218">
@@ -5586,14 +5569,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE31')</t>
+          <t>('SBS2', 'UE41')</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0.001</v>
+        <v>0.0016</v>
       </c>
       <c r="E218" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="219">
@@ -5605,14 +5588,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE41')</t>
+          <t>('SBS2', 'UE48')</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0.0016</v>
+        <v>0.001443</v>
       </c>
       <c r="E219" t="n">
-        <v>30000</v>
+        <v>33264</v>
       </c>
     </row>
     <row r="220">
@@ -5624,14 +5607,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE48')</t>
+          <t>('SBS2', 'UE49')</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.001443</v>
+        <v>0.001314</v>
       </c>
       <c r="E220" t="n">
-        <v>33264</v>
+        <v>36530</v>
       </c>
     </row>
     <row r="221">
@@ -5643,14 +5626,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE49')</t>
+          <t>('SBS2', 'UE50')</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0.001314</v>
+        <v>0.0018</v>
       </c>
       <c r="E221" t="n">
-        <v>36530</v>
+        <v>26667</v>
       </c>
     </row>
     <row r="222">
@@ -5662,14 +5645,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE50')</t>
+          <t>('SBS3', 'MBS2')</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
       <c r="E222" t="n">
-        <v>26667</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="223">
@@ -5681,14 +5664,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>('SBS3', 'MBS2')</t>
+          <t>('SBS3', 'UE1')</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.002</v>
+        <v>0.001957</v>
       </c>
       <c r="E223" t="n">
-        <v>24000</v>
+        <v>24527</v>
       </c>
     </row>
     <row r="224">
@@ -5723,10 +5706,10 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0.001086</v>
+        <v>0.001371</v>
       </c>
       <c r="E225" t="n">
-        <v>44199</v>
+        <v>35011</v>
       </c>
     </row>
     <row r="226">
@@ -5761,10 +5744,10 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0.001571</v>
+        <v>0.001286</v>
       </c>
       <c r="E227" t="n">
-        <v>30554</v>
+        <v>37325</v>
       </c>
     </row>
     <row r="228">
@@ -5780,10 +5763,10 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0.001286</v>
+        <v>0.001571</v>
       </c>
       <c r="E228" t="n">
-        <v>37325</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="229">
@@ -5799,10 +5782,10 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.001443</v>
+        <v>0.001157</v>
       </c>
       <c r="E229" t="n">
-        <v>33264</v>
+        <v>41487</v>
       </c>
     </row>
     <row r="230">
@@ -5837,10 +5820,10 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0.001257</v>
+        <v>0.001</v>
       </c>
       <c r="E231" t="n">
-        <v>38186</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="232">
@@ -5875,10 +5858,10 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0.0015</v>
+        <v>0.001786</v>
       </c>
       <c r="E233" t="n">
-        <v>32000</v>
+        <v>26876</v>
       </c>
     </row>
     <row r="234">
@@ -5894,10 +5877,10 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0.001757</v>
+        <v>0.001471</v>
       </c>
       <c r="E234" t="n">
-        <v>27319</v>
+        <v>32631</v>
       </c>
     </row>
     <row r="235">
@@ -5970,10 +5953,10 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0.001257</v>
+        <v>0.001543</v>
       </c>
       <c r="E238" t="n">
-        <v>38186</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="239">
@@ -6008,10 +5991,10 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0.001343</v>
+        <v>0.001629</v>
       </c>
       <c r="E240" t="n">
-        <v>35741</v>
+        <v>29466</v>
       </c>
     </row>
     <row r="241">
@@ -6065,10 +6048,10 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0.001914</v>
+        <v>0.001629</v>
       </c>
       <c r="E243" t="n">
-        <v>25078</v>
+        <v>29466</v>
       </c>
     </row>
     <row r="244">
@@ -6103,10 +6086,10 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.001314</v>
+        <v>0.0016</v>
       </c>
       <c r="E245" t="n">
-        <v>36530</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="246">
@@ -6175,14 +6158,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE15')</t>
+          <t>('SBS4', 'UE13')</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0.001471</v>
+        <v>0.0019</v>
       </c>
       <c r="E249" t="n">
-        <v>32631</v>
+        <v>25263</v>
       </c>
     </row>
     <row r="250">
@@ -6194,14 +6177,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE22')</t>
+          <t>('SBS4', 'UE15')</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.0013</v>
+        <v>0.001471</v>
       </c>
       <c r="E250" t="n">
-        <v>36923</v>
+        <v>32631</v>
       </c>
     </row>
     <row r="251">
@@ -6213,14 +6196,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE23')</t>
+          <t>('SBS4', 'UE19')</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0.001229</v>
+        <v>0.001771</v>
       </c>
       <c r="E251" t="n">
-        <v>39056</v>
+        <v>27103</v>
       </c>
     </row>
     <row r="252">
@@ -6232,14 +6215,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE24')</t>
+          <t>('SBS4', 'UE22')</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0.001614</v>
+        <v>0.001014</v>
       </c>
       <c r="E252" t="n">
-        <v>29740</v>
+        <v>47337</v>
       </c>
     </row>
     <row r="253">
@@ -6251,14 +6234,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE25')</t>
+          <t>('SBS4', 'UE23')</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0.001171</v>
+        <v>0.001</v>
       </c>
       <c r="E253" t="n">
-        <v>40991</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="254">
@@ -6270,14 +6253,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE27')</t>
+          <t>('SBS4', 'UE24')</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0.001757</v>
+        <v>0.001329</v>
       </c>
       <c r="E254" t="n">
-        <v>27319</v>
+        <v>36117</v>
       </c>
     </row>
     <row r="255">
@@ -6289,14 +6272,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE29')</t>
+          <t>('SBS4', 'UE25')</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0.0016</v>
+        <v>0.001</v>
       </c>
       <c r="E255" t="n">
-        <v>30000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="256">
@@ -6308,14 +6291,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE32')</t>
+          <t>('SBS4', 'UE27')</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0.001886</v>
+        <v>0.0019</v>
       </c>
       <c r="E256" t="n">
-        <v>25451</v>
+        <v>25263</v>
       </c>
     </row>
     <row r="257">
@@ -6327,14 +6310,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE34')</t>
+          <t>('SBS4', 'UE29')</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0.001943</v>
+        <v>0.001886</v>
       </c>
       <c r="E257" t="n">
-        <v>24704</v>
+        <v>25451</v>
       </c>
     </row>
     <row r="258">
@@ -6346,14 +6329,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE35')</t>
+          <t>('SBS4', 'UE34')</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0.001186</v>
+        <v>0.001943</v>
       </c>
       <c r="E258" t="n">
-        <v>40472</v>
+        <v>24704</v>
       </c>
     </row>
     <row r="259">
@@ -6365,14 +6348,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE37')</t>
+          <t>('SBS4', 'UE35')</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0.001443</v>
+        <v>0.001</v>
       </c>
       <c r="E259" t="n">
-        <v>33264</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="260">
@@ -6384,14 +6367,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE43')</t>
+          <t>('SBS4', 'UE37')</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0.0019</v>
+        <v>0.001729</v>
       </c>
       <c r="E260" t="n">
-        <v>25263</v>
+        <v>27762</v>
       </c>
     </row>
     <row r="261">
@@ -6411,6 +6394,25 @@
       </c>
       <c r="E261" t="n">
         <v>32301</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE48')</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.001986</v>
+      </c>
+      <c r="E262" t="n">
+        <v>24169</v>
       </c>
     </row>
   </sheetData>
@@ -6458,11 +6460,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['00000001_F9']</t>
+          <t>['00000001_F3']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0018</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="3">
@@ -6474,11 +6476,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['00000002_F6']</t>
+          <t>['00000002_F9']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0011</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="4">
@@ -6490,11 +6492,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['00000003_F2']</t>
+          <t>['00000003_F1']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0015</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="5">
@@ -6506,11 +6508,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['00000001_F9']</t>
+          <t>['00000001_F3']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.001943</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="6">
@@ -6522,11 +6524,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['00000002_F6']</t>
+          <t>['00000002_F9']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.004</v>
+        <v>0.001871</v>
       </c>
     </row>
     <row r="7">
@@ -6538,11 +6540,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['00000003_F2']</t>
+          <t>['00000003_F1']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8">
@@ -6554,11 +6556,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['00000004_F2']</t>
+          <t>['00000004_F1']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.004</v>
+        <v>0.001657</v>
       </c>
     </row>
     <row r="9">
@@ -6570,11 +6572,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['00000005_F2']</t>
+          <t>['00000005_F3']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="10">
@@ -6586,11 +6588,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['00000006_F6']</t>
+          <t>['00000006_F5']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.004</v>
+        <v>0.0014</v>
       </c>
     </row>
   </sheetData>
@@ -6834,10 +6836,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F8" t="n">
         <v>8000</v>
@@ -6922,10 +6924,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F12" t="n">
         <v>8000</v>
@@ -6944,10 +6946,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F13" t="n">
         <v>8000</v>
@@ -6966,10 +6968,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F14" t="n">
         <v>8000</v>
@@ -7079,16 +7081,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1667</v>
+        <v>0.6667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8333</v>
+        <v>0.3333</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
@@ -7191,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -7226,13 +7228,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -7379,10 +7381,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.08955223880597014</v>
       </c>
     </row>
   </sheetData>
@@ -7466,7 +7468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE17')</t>
+          <t>('SBS2', 'UE48')</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7482,7 +7484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE49')</t>
+          <t>('SBS3', 'UE43')</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7498,7 +7500,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE31')</t>
+          <t>('SBS4', 'UE29')</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7514,7 +7516,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('MBS0', 'UE2')</t>
+          <t>('MBS0', 'UE25')</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7530,7 +7532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('MBS0', 'UE24')</t>
+          <t>('MBS0', 'UE48')</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7546,7 +7548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('MBS0', 'UE31')</t>
+          <t>('SBS1', 'UE29')</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7562,7 +7564,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('MBS0', 'UE42')</t>
+          <t>('SBS2', 'UE2')</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7578,7 +7580,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('MBS0', 'UE49')</t>
+          <t>('SBS3', 'UE32')</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7594,7 +7596,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('SBS2', 'UE17')</t>
+          <t>('SBS3', 'UE43')</t>
         </is>
       </c>
       <c r="D10" t="n">
